--- a/DataTables/Datas/Table.xlsx
+++ b/DataTables/Datas/Table.xlsx
@@ -4,17 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21240" windowHeight="15345"/>
+    <workbookView windowWidth="31290" windowHeight="13215"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
   <si>
     <t>##var</t>
   </si>
@@ -113,9 +126,6 @@
   </si>
   <si>
     <t>例子</t>
-  </si>
-  <si>
-    <t>example</t>
   </si>
   <si>
     <t>Example.TbExampleExtendStruct</t>
@@ -184,7 +194,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1196,7 +1206,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="$A4:$XFD9"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1303,7 +1313,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" ht="20" customHeight="1" spans="1:11">
+    <row r="4" s="2" customFormat="1" ht="20" customHeight="1" spans="1:9">
       <c r="A4" s="5"/>
       <c r="B4" s="2" t="s">
         <v>27</v>
@@ -1326,23 +1336,20 @@
       <c r="I4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>33</v>
-      </c>
     </row>
-    <row r="5" s="3" customFormat="1" ht="20" customHeight="1" spans="1:11">
+    <row r="5" s="3" customFormat="1" ht="20" customHeight="1" spans="1:9">
       <c r="A5" s="6"/>
       <c r="B5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="D5" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>30</v>
@@ -1351,95 +1358,88 @@
         <v>31</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="6" s="4" customFormat="1" ht="20" customHeight="1" spans="1:11">
+    <row r="6" s="4" customFormat="1" ht="20" customHeight="1" spans="1:8">
       <c r="A6" s="7"/>
       <c r="B6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="D6" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="4"/>
+        <v>39</v>
+      </c>
       <c r="G6" s="4" t="s">
         <v>30</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="20" customHeight="1" spans="2:9">
       <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
         <v>41</v>
-      </c>
-      <c r="C7" t="s">
-        <v>42</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G7" t="s">
         <v>30</v>
       </c>
       <c r="H7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" t="s">
         <v>44</v>
-      </c>
-      <c r="I7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="8" customFormat="1" ht="20" customHeight="1" spans="2:9">
       <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
         <v>46</v>
-      </c>
-      <c r="C8" t="s">
-        <v>47</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
       </c>
       <c r="E8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" t="s">
         <v>48</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" t="s">
         <v>49</v>
-      </c>
-      <c r="H8" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="9" customFormat="1" ht="20" customHeight="1" spans="2:9">
       <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s">
         <v>51</v>
-      </c>
-      <c r="C9" t="s">
-        <v>52</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G9" t="s">
         <v>30</v>
@@ -1448,7 +1448,7 @@
         <v>31</v>
       </c>
       <c r="I9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/DataTables/Datas/Table.xlsx
+++ b/DataTables/Datas/Table.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="59">
   <si>
     <t>##var</t>
   </si>
@@ -140,6 +140,18 @@
     <t>进阶例子</t>
   </si>
   <si>
+    <t>Example.TbBenchmark</t>
+  </si>
+  <si>
+    <t>Benchmark</t>
+  </si>
+  <si>
+    <t>Example/Benchmark/Benchmark.xlsx</t>
+  </si>
+  <si>
+    <t>测试</t>
+  </si>
+  <si>
     <t>Example.TbExampleItemData</t>
   </si>
   <si>
@@ -147,6 +159,9 @@
   </si>
   <si>
     <t>Example/ItemData.xlsx</t>
+  </si>
+  <si>
+    <t>道具例子</t>
   </si>
   <si>
     <t>Item.TbItemData</t>
@@ -859,7 +874,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -876,6 +891,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
@@ -1203,10 +1221,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1214,7 +1232,7 @@
     <col min="2" max="2" width="29.1083333333333" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="24.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="34.875" customWidth="1"/>
     <col min="6" max="6" width="12.6666666666667" customWidth="1"/>
     <col min="7" max="7" width="11.2166666666667" customWidth="1"/>
     <col min="8" max="8" width="9.88333333333333" customWidth="1"/>
@@ -1361,47 +1379,51 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" s="4" customFormat="1" ht="20" customHeight="1" spans="1:8">
+    <row r="6" s="3" customFormat="1" ht="20" customHeight="1" spans="1:9">
       <c r="A6" s="7"/>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="4" t="b">
+      <c r="D6" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="I6" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="7" customFormat="1" ht="20" customHeight="1" spans="2:9">
-      <c r="B7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" t="s">
+    <row r="7" s="4" customFormat="1" ht="20" customHeight="1" spans="1:9">
+      <c r="A7" s="8"/>
+      <c r="B7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D7" t="b">
+      <c r="C7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="E7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="H7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1419,10 +1441,10 @@
         <v>47</v>
       </c>
       <c r="G8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" t="s">
         <v>48</v>
-      </c>
-      <c r="H8" t="s">
-        <v>43</v>
       </c>
       <c r="I8" t="s">
         <v>49</v>
@@ -1442,13 +1464,36 @@
         <v>52</v>
       </c>
       <c r="G9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" ht="20" customHeight="1" spans="2:9">
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" t="s">
         <v>30</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H10" t="s">
         <v>31</v>
       </c>
-      <c r="I9" t="s">
-        <v>53</v>
+      <c r="I10" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/DataTables/Datas/Table.xlsx
+++ b/DataTables/Datas/Table.xlsx
@@ -874,7 +874,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -891,9 +891,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
@@ -1224,7 +1221,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1380,7 +1377,7 @@
       </c>
     </row>
     <row r="6" s="3" customFormat="1" ht="20" customHeight="1" spans="1:9">
-      <c r="A6" s="7"/>
+      <c r="A6" s="6"/>
       <c r="B6" s="3" t="s">
         <v>37</v>
       </c>
@@ -1404,7 +1401,7 @@
       </c>
     </row>
     <row r="7" s="4" customFormat="1" ht="20" customHeight="1" spans="1:9">
-      <c r="A7" s="8"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="4" t="s">
         <v>41</v>
       </c>
